--- a/src/test/resources/Data/list.xlsx
+++ b/src/test/resources/Data/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\eclipse-workspace\demoblaze\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\eclipse-workspace\ContactListProj\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFDF6E-457A-4BBA-98CC-818D2BE3B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBD404-8A4F-499E-A3D9-999BD1A194A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{949AE54A-C16F-42E0-8C26-5BF3B29A2A7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{949AE54A-C16F-42E0-8C26-5BF3B29A2A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="LogInSheet" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55932BBC-28D8-447A-A994-481D2F22E4B5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D6E83-8187-4D03-980B-DEA4E90DAA06}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Data/list.xlsx
+++ b/src/test/resources/Data/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\eclipse-workspace\ContactListProj\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBD404-8A4F-499E-A3D9-999BD1A194A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC53305C-C69D-420D-8DC2-C57BCCA3856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{949AE54A-C16F-42E0-8C26-5BF3B29A2A7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{949AE54A-C16F-42E0-8C26-5BF3B29A2A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="LogInSheet" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>InvalidPhoneNumber</t>
   </si>
   <si>
-    <t>manjula121821@gmail.com</t>
-  </si>
-  <si>
     <t>duplicateContact</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Contact validation failed: firstName: Path `firstName` (`abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrjhjhjhjjhjhjhjhj`) is longer than the maximum allowed length (20).</t>
+  </si>
+  <si>
+    <t>smanjula11182000@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55932BBC-28D8-447A-A994-481D2F22E4B5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
@@ -849,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>28</v>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D6E83-8187-4D03-980B-DEA4E90DAA06}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1141,7 @@
         <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
         <v>62</v>
@@ -1223,22 +1223,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7">
         <v>38635</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>9875543211</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
@@ -1256,33 +1256,33 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
       <c r="C3" s="7">
         <v>38048</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>9854363211</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -1297,10 +1297,10 @@
         <v>59</v>
       </c>
       <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
         <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/list.xlsx
+++ b/src/test/resources/Data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\eclipse-workspace\ContactListProj\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC53305C-C69D-420D-8DC2-C57BCCA3856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD8EDD-263E-4FC9-9742-261FE16C92DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{949AE54A-C16F-42E0-8C26-5BF3B29A2A7E}"/>
   </bookViews>
@@ -309,7 +309,7 @@
     <t>Contact validation failed: firstName: Path `firstName` (`abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrjhjhjhjjhjhjhjhj`) is longer than the maximum allowed length (20).</t>
   </si>
   <si>
-    <t>smanjula11182000@gmail.com</t>
+    <t>smanjulassn18112000@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/Data/list.xlsx
+++ b/src/test/resources/Data/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\eclipse-workspace\ContactListProj\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD8EDD-263E-4FC9-9742-261FE16C92DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1AF756-A044-464A-8C2F-7716CBD720FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{949AE54A-C16F-42E0-8C26-5BF3B29A2A7E}"/>
   </bookViews>
@@ -309,7 +309,7 @@
     <t>Contact validation failed: firstName: Path `firstName` (`abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrjhjhjhjjhjhjhjhj`) is longer than the maximum allowed length (20).</t>
   </si>
   <si>
-    <t>smanjulassn18112000@gmail.com</t>
+    <t>smanjula18112000ssn@gmail.com</t>
   </si>
 </sst>
 </file>
